--- a/KS-15/コスト/2018パーツリスト カウル班　20180424.xlsx
+++ b/KS-15/コスト/2018パーツリスト カウル班　20180424.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\formula\Dropbox\共有ファイル(桑野)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Formula-nasbi2\NASBI7\各班フォルダ\2018\ボディ\エアロ\Aero\KS-15\コスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>Part</t>
     <phoneticPr fontId="1"/>
@@ -480,6 +480,13 @@
   </si>
   <si>
     <t>…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>✓</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1064,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1486,6 +1493,9 @@
       <c r="F22" t="s">
         <v>53</v>
       </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="26"/>
@@ -1500,7 +1510,7 @@
         <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.15">
@@ -1515,6 +1525,9 @@
       <c r="F24" t="s">
         <v>94</v>
       </c>
+      <c r="G24" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="26"/>
@@ -1529,7 +1542,7 @@
         <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.15">
@@ -1545,7 +1558,7 @@
         <v>94</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.15">
@@ -1561,7 +1574,7 @@
         <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.15">
@@ -1577,7 +1590,7 @@
         <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.15">
@@ -1769,7 +1782,9 @@
         <v>4</v>
       </c>
       <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="G43" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B44" s="24"/>
@@ -1876,7 +1891,9 @@
         <v>4</v>
       </c>
       <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="53" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B53" s="24"/>
@@ -2095,6 +2112,9 @@
         <v>2</v>
       </c>
       <c r="F70" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" t="s">
         <v>53</v>
       </c>
     </row>

--- a/KS-15/コスト/2018パーツリスト カウル班　20180424.xlsx
+++ b/KS-15/コスト/2018パーツリスト カウル班　20180424.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Formula-nasbi2\NASBI7\各班フォルダ\2018\ボディ\エアロ\Aero\KS-15\コスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ku_sk\ドキュメント\Inventor\Aero\KS-15\コスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23820" yWindow="345" windowWidth="14400" windowHeight="10995"/>
+    <workbookView xWindow="24750" yWindow="345" windowWidth="14400" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="96">
   <si>
     <t>Part</t>
     <phoneticPr fontId="1"/>
@@ -351,18 +351,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rear Wing FL pipe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rear Wing RL pipe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rear Wing FU pipe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rear Wing Core</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -443,10 +431,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rear Wing Flap Stay</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rear Wing FL Suspension Coller</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -479,21 +463,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>✓</t>
   </si>
   <si>
     <t>✓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rear Wing FU Pipe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rear Wing FL Pipe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rear Wing RL Pipe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rear Wing Splitter</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -667,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,9 +695,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1071,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1091,10 +1084,10 @@
     <row r="1" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
@@ -1115,20 +1108,20 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="2"/>
@@ -1138,20 +1131,20 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>1</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="2"/>
@@ -1161,18 +1154,18 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>1</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="2"/>
@@ -1182,18 +1175,18 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>1</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="2"/>
@@ -1203,18 +1196,18 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>1</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="2"/>
@@ -1224,20 +1217,20 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="26"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>1</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="2"/>
@@ -1247,20 +1240,20 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="26"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>1</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="2"/>
@@ -1270,12 +1263,12 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2"/>
@@ -1285,18 +1278,18 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B11" s="26"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>1</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="5"/>
@@ -1306,14 +1299,14 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B12" s="26"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <v>1</v>
       </c>
       <c r="F12" s="8"/>
@@ -1325,10 +1318,10 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
       <c r="H13" s="5"/>
@@ -1338,18 +1331,18 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B14" s="17"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>1</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="5"/>
@@ -1359,14 +1352,14 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <v>1</v>
       </c>
       <c r="F15" s="8"/>
@@ -1380,14 +1373,14 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B16" s="23"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25">
         <v>2</v>
       </c>
       <c r="F16" s="8"/>
@@ -1401,14 +1394,14 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B17" s="23"/>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>2</v>
       </c>
       <c r="F17" s="8"/>
@@ -1420,26 +1413,26 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B18" s="23"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B19" s="26"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="25">
         <v>1</v>
       </c>
       <c r="F19" t="s">
@@ -1450,12 +1443,14 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B20" s="26"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="25">
         <v>4</v>
       </c>
       <c r="F20" t="s">
@@ -1466,12 +1461,14 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B21" s="26"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="25">
         <v>6</v>
       </c>
       <c r="F21" t="s">
@@ -1482,12 +1479,14 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B22" s="26"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="25">
         <v>2</v>
       </c>
       <c r="F22" t="s">
@@ -1498,581 +1497,680 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B23" s="26"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="25">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="26">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B24" s="26"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="26">
+      <c r="B24" s="25"/>
+      <c r="C24" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="25">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B25" s="26"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="26">
+      <c r="B25" s="25"/>
+      <c r="C25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="25">
         <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B26" s="26"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="25">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B27" s="26"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="25">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="B28" s="25"/>
+      <c r="C28" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="25">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="26">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B28" s="26"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="26">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B30" s="26"/>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="25">
         <v>5</v>
       </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
       <c r="G30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B31" s="26"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="25">
         <v>10</v>
       </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
       <c r="G31" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="B32" s="26"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="26">
-        <v>2</v>
+      <c r="E32" s="25">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
       </c>
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B33" s="26"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="26">
+      <c r="B33" s="25"/>
+      <c r="C33" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="25">
         <v>4</v>
       </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
       <c r="G33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="26">
-        <v>2</v>
-      </c>
-      <c r="F34" s="9"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="25">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
       <c r="G34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="26">
+      <c r="B35" s="23"/>
+      <c r="C35" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="25">
         <v>1</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B36" s="26"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="26">
+      <c r="B36" s="25"/>
+      <c r="C36" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="25">
         <v>1</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
       <c r="G36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B37" s="26"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="26">
-        <v>2</v>
-      </c>
-      <c r="F37" s="11"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="25">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
       <c r="G37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="26">
-        <v>2</v>
-      </c>
-      <c r="F38" s="9"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="25">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
       <c r="G38" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B40" s="24"/>
-      <c r="C40" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="26">
-        <v>2</v>
-      </c>
-      <c r="F40" s="8"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="25">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>53</v>
+      </c>
       <c r="G40" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="26">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="25">
         <v>1</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
       <c r="G41" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="26">
-        <v>2</v>
-      </c>
-      <c r="F42" s="9"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="25">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>53</v>
+      </c>
       <c r="G42" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="25">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B44" s="23"/>
+      <c r="C44" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E44" s="25">
         <v>4</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="26">
-        <v>4</v>
+      <c r="F44" t="s">
+        <v>53</v>
       </c>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B46" s="24"/>
-      <c r="C46" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="26">
-        <v>2</v>
-      </c>
-      <c r="F46" s="8"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="25">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>53</v>
+      </c>
       <c r="G46" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="26">
+      <c r="B47" s="23"/>
+      <c r="C47" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="25">
         <v>4</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
       <c r="G47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E48" s="26">
+      <c r="B48" s="23"/>
+      <c r="C48" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="25">
         <v>4</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="49" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="26">
+      <c r="B49" s="23"/>
+      <c r="C49" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="25">
         <v>4</v>
       </c>
+      <c r="F49" t="s">
+        <v>53</v>
+      </c>
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B51" s="24"/>
-      <c r="C51" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="26">
-        <v>2</v>
-      </c>
-      <c r="F51" s="11"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="25">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>53</v>
+      </c>
       <c r="G51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="26">
+      <c r="B52" s="23"/>
+      <c r="C52" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="25">
         <v>4</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" t="s">
+        <v>53</v>
+      </c>
       <c r="G52" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="26">
+      <c r="B53" s="23"/>
+      <c r="C53" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="25">
         <v>4</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" t="s">
+        <v>53</v>
+      </c>
       <c r="G53" s="9"/>
     </row>
     <row r="54" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="26">
+      <c r="B54" s="23"/>
+      <c r="C54" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="25">
         <v>4</v>
       </c>
+      <c r="F54" t="s">
+        <v>53</v>
+      </c>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B55" s="23"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="26">
+      <c r="E56" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B57" s="23"/>
-      <c r="C57" s="25" t="s">
+      <c r="B57" s="22"/>
+      <c r="C57" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B58" s="23"/>
-      <c r="C58" s="25" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="26">
+      <c r="E58" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B59" s="23"/>
-      <c r="C59" s="25" t="s">
+      <c r="B59" s="22"/>
+      <c r="C59" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="26">
+      <c r="E59" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B60" s="23"/>
-      <c r="C60" s="25" t="s">
+      <c r="B60" s="22"/>
+      <c r="C60" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E60" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B61" s="23"/>
-      <c r="C61" s="25" t="s">
+      <c r="B61" s="22"/>
+      <c r="C61" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D61" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E61" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B62" s="23"/>
-      <c r="C62" s="25" t="s">
+      <c r="B62" s="22"/>
+      <c r="C62" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E62" s="26">
+      <c r="E62" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B63" s="23"/>
-      <c r="C63" s="25" t="s">
+      <c r="B63" s="22"/>
+      <c r="C63" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E63" s="26">
+      <c r="E63" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B64" s="23"/>
-      <c r="C64" s="25" t="s">
+      <c r="B64" s="22"/>
+      <c r="C64" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E64" s="26">
+      <c r="E64" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B65" s="23"/>
-      <c r="C65" s="25" t="s">
+      <c r="B65" s="22"/>
+      <c r="C65" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="26">
+      <c r="E65" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B66" s="23"/>
-      <c r="C66" s="25" t="s">
+      <c r="B66" s="22"/>
+      <c r="C66" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="26">
+      <c r="E66" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B67" s="23"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
     </row>
     <row r="68" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B68" s="23"/>
-      <c r="C68" s="25" t="s">
+      <c r="B68" s="22"/>
+      <c r="C68" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68" s="26">
+      <c r="D68" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" s="25">
         <v>2</v>
       </c>
       <c r="F68" t="s">
@@ -2083,14 +2181,14 @@
       </c>
     </row>
     <row r="69" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B69" s="23"/>
-      <c r="C69" s="25" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E69" s="26">
+      <c r="D69" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="25">
         <v>2</v>
       </c>
       <c r="F69" t="s">
@@ -2101,14 +2199,14 @@
       </c>
     </row>
     <row r="70" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B70" s="23"/>
-      <c r="C70" s="25" t="s">
+      <c r="B70" s="22"/>
+      <c r="C70" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" s="26">
+      <c r="D70" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="25">
         <v>2</v>
       </c>
       <c r="F70" t="s">
